--- a/excel_files/trial_01.xlsx
+++ b/excel_files/trial_01.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O59"/>
+  <dimension ref="A1:P59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,6 +505,11 @@
       </c>
       <c r="N1" s="1" t="n"/>
       <c r="O1" s="1" t="n"/>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Torsion Check</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr"/>
@@ -566,6 +571,7 @@
           <t>Right (K)</t>
         </is>
       </c>
+      <c r="P2" s="1" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -624,17 +630,22 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2L-T12@250</t>
+          <t>2L-T25@100</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2L-T12@250</t>
+          <t>2L-T25@100</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2L-T12@250</t>
+          <t>2L-T25@100</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -708,6 +719,11 @@
           <t>Overstressed. Please reassess</t>
         </is>
       </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Overstressed. Please reassess</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -779,6 +795,11 @@
           <t>Overstressed. Please reassess</t>
         </is>
       </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Overstressed. Please reassess</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -850,6 +871,11 @@
           <t>2L-T12@100</t>
         </is>
       </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -908,17 +934,22 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2L-T16@100</t>
+          <t>4L-T12@100</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2L-T16@150</t>
+          <t>4L-T12@150</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2L-T16@100</t>
+          <t>4L-T12@100</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -979,17 +1010,22 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2L-T12@100</t>
+          <t>4L-T12@200</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2L-T12@100</t>
+          <t>4L-T12@200</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2L-T12@100</t>
+          <t>4L-T12@200</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -1050,17 +1086,22 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2L-T16@150</t>
+          <t>4L-T12@150</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2L-T12@100</t>
+          <t>4L-T12@250</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2L-T16@150</t>
+          <t>4L-T12@150</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -1121,17 +1162,22 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2L-T16@150</t>
+          <t>4L-T12@150</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2L-T12@100</t>
+          <t>4L-T12@200</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2L-T16@150</t>
+          <t>4L-T12@150</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -1192,17 +1238,22 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2L-T16@150</t>
+          <t>4L-T12@150</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2L-T12@100</t>
+          <t>4L-T12@200</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2L-T16@150</t>
+          <t>4L-T12@150</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -1263,17 +1314,22 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2L-T12@100</t>
+          <t>4L-T12@200</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2L-T12@150</t>
+          <t>4L-T12@250</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2L-T12@100</t>
+          <t>4L-T12@200</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -1334,17 +1390,22 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2L-T16@100</t>
+          <t>4L-T12@150</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2L-T12@150</t>
+          <t>4L-T12@250</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2L-T16@100</t>
+          <t>4L-T12@150</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -1405,17 +1466,22 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2L-T16@100</t>
+          <t>4L-T12@100</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>2L-T12@150</t>
+          <t>4L-T12@250</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2L-T16@100</t>
+          <t>4L-T12@100</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -1489,6 +1555,11 @@
           <t>Overstressed. Please reassess</t>
         </is>
       </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Overstressed. Please reassess</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1547,17 +1618,22 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2L-T12@100</t>
+          <t>4L-T12@200</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2L-T12@150</t>
+          <t>4L-T12@250</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2L-T12@100</t>
+          <t>4L-T12@200</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -1618,17 +1694,22 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2L-T20@100</t>
+          <t>4L-T12@100</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2L-T12@100</t>
+          <t>4L-T12@200</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2L-T20@100</t>
+          <t>4L-T12@100</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -1689,17 +1770,22 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2L-T20@100</t>
+          <t>4L-T12@100</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2L-T12@100</t>
+          <t>4L-T12@200</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2L-T20@100</t>
+          <t>4L-T12@100</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -1760,17 +1846,22 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2L-T16@150</t>
+          <t>4L-T12@150</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2L-T12@250</t>
+          <t>4L-T12@250</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2L-T16@150</t>
+          <t>4L-T12@150</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -1831,17 +1922,22 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2L-T12@200</t>
+          <t>4L-T12@250</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2L-T12@200</t>
+          <t>4L-T12@250</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2L-T12@200</t>
+          <t>4L-T12@250</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -1902,17 +1998,22 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2L-T12@150</t>
+          <t>4L-T12@250</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2L-T12@150</t>
+          <t>4L-T12@250</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2L-T12@150</t>
+          <t>4L-T12@250</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -1973,17 +2074,22 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2L-T12@200</t>
+          <t>4L-T12@250</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2L-T12@200</t>
+          <t>4L-T12@250</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2L-T12@200</t>
+          <t>4L-T12@250</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -2044,17 +2150,22 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2L-T12@150</t>
+          <t>4L-T12@250</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2L-T12@150</t>
+          <t>4L-T12@250</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2L-T12@150</t>
+          <t>4L-T12@250</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -2115,17 +2226,22 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2L-T12@250</t>
+          <t>4L-T12@250</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2L-T12@250</t>
+          <t>4L-T12@250</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2L-T12@250</t>
+          <t>4L-T12@250</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -2186,17 +2302,22 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2L-T12@250</t>
+          <t>4L-T12@250</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2L-T12@250</t>
+          <t>4L-T12@250</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2L-T12@250</t>
+          <t>4L-T12@250</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -2257,17 +2378,22 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2L-T12@250</t>
+          <t>4L-T12@250</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2L-T12@250</t>
+          <t>4L-T12@250</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2L-T12@250</t>
+          <t>4L-T12@250</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -2341,6 +2467,11 @@
           <t>2L-T12@250</t>
         </is>
       </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -2399,17 +2530,22 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2L-T16@100</t>
+          <t>4L-T12@100</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2L-T16@100</t>
+          <t>4L-T12@150</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2L-T16@100</t>
+          <t>4L-T12@100</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -2483,6 +2619,11 @@
           <t>Overstressed. Please reassess</t>
         </is>
       </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Overstressed. Please reassess</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2541,17 +2682,22 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2L-T12@150</t>
+          <t>4L-T12@250</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>2L-T12@150</t>
+          <t>4L-T12@250</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2L-T12@150</t>
+          <t>4L-T12@250</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -2612,17 +2758,22 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2L-T12@150</t>
+          <t>4L-T12@250</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2L-T12@250</t>
+          <t>4L-T12@250</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2L-T12@150</t>
+          <t>4L-T12@250</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -2683,17 +2834,22 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2L-T16@100</t>
+          <t>4L-T12@100</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2L-T16@100</t>
+          <t>4L-T12@100</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2L-T16@100</t>
+          <t>4L-T12@100</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -2754,17 +2910,22 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>2L-T16@100</t>
+          <t>4L-T12@150</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2L-T12@150</t>
+          <t>4L-T12@250</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2L-T16@100</t>
+          <t>4L-T12@150</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -2825,17 +2986,22 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>2L-T16@100</t>
+          <t>4L-T12@100</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2L-T16@100</t>
+          <t>4L-T12@100</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2L-T16@100</t>
+          <t>4L-T12@100</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -2896,17 +3062,22 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2L-T16@100</t>
+          <t>4L-T12@150</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2L-T12@200</t>
+          <t>4L-T12@250</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2L-T16@100</t>
+          <t>4L-T12@150</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -2967,17 +3138,22 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2L-T12@250</t>
+          <t>4L-T12@250</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2L-T12@250</t>
+          <t>4L-T12@250</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2L-T12@250</t>
+          <t>4L-T12@250</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -3038,17 +3214,22 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2L-T12@250</t>
+          <t>4L-T12@250</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2L-T12@250</t>
+          <t>4L-T12@250</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2L-T12@250</t>
+          <t>4L-T12@250</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -3109,17 +3290,22 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2L-T16@150</t>
+          <t>4L-T12@150</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>2L-T16@150</t>
+          <t>4L-T12@150</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2L-T16@150</t>
+          <t>4L-T12@150</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -3180,17 +3366,22 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2L-T20@100</t>
+          <t>4L-T16@150</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2L-T12@100</t>
+          <t>4L-T12@250</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2L-T20@100</t>
+          <t>4L-T16@150</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -3251,17 +3442,22 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2L-T16@100</t>
+          <t>4L-T12@100</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>2L-T16@100</t>
+          <t>4L-T12@100</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2L-T16@100</t>
+          <t>4L-T12@100</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -3322,17 +3518,22 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2L-T16@150</t>
+          <t>4L-T12@150</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2L-T16@150</t>
+          <t>4L-T12@150</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2L-T16@150</t>
+          <t>4L-T12@150</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -3393,17 +3594,22 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2L-T20@150</t>
+          <t>4L-T12@100</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>2L-T12@100</t>
+          <t>4L-T12@250</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2L-T20@150</t>
+          <t>4L-T12@100</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -3464,17 +3670,22 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2L-T16@100</t>
+          <t>4L-T12@150</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2L-T16@100</t>
+          <t>4L-T12@150</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2L-T16@100</t>
+          <t>4L-T12@150</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -3548,6 +3759,11 @@
           <t>Overstressed. Please reassess</t>
         </is>
       </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Overstressed. Please reassess</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -3619,6 +3835,11 @@
           <t>Overstressed. Please reassess</t>
         </is>
       </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Overstressed. Please reassess</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -3690,6 +3911,11 @@
           <t>Overstressed. Please reassess</t>
         </is>
       </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Overstressed. Please reassess</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -3748,17 +3974,22 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>2L-T20@100</t>
+          <t>4L-T12@100</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2L-T20@100</t>
+          <t>4L-T12@100</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2L-T20@100</t>
+          <t>4L-T12@100</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -3832,6 +4063,11 @@
           <t>Overstressed. Please reassess</t>
         </is>
       </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Overstressed. Please reassess</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -3903,6 +4139,11 @@
           <t>Overstressed. Please reassess</t>
         </is>
       </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Overstressed. Please reassess</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -3974,6 +4215,11 @@
           <t>Overstressed. Please reassess</t>
         </is>
       </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Overstressed. Please reassess</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -4045,6 +4291,11 @@
           <t>Overstressed. Please reassess</t>
         </is>
       </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Overstressed. Please reassess</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -4116,6 +4367,11 @@
           <t>Overstressed. Please reassess</t>
         </is>
       </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Overstressed. Please reassess</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -4187,6 +4443,11 @@
           <t>Overstressed. Please reassess</t>
         </is>
       </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Overstressed. Please reassess</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -4258,6 +4519,11 @@
           <t>Overstressed. Please reassess</t>
         </is>
       </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Overstressed. Please reassess</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -4329,6 +4595,11 @@
           <t>Overstressed. Please reassess</t>
         </is>
       </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Overstressed. Please reassess</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -4400,6 +4671,11 @@
           <t>Overstressed. Please reassess</t>
         </is>
       </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>Overstressed. Please reassess</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -4471,6 +4747,11 @@
           <t>Overstressed. Please reassess</t>
         </is>
       </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>Overstressed. Please reassess</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -4538,6 +4819,11 @@
         </is>
       </c>
       <c r="O59" t="inlineStr">
+        <is>
+          <t>Overstressed. Please reassess</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
         <is>
           <t>Overstressed. Please reassess</t>
         </is>

--- a/excel_files/trial_01.xlsx
+++ b/excel_files/trial_01.xlsx
@@ -949,7 +949,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -1010,22 +1010,22 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
+          <t>4L-T16@100</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
           <t>4L-T12@200</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>4L-T12@200</t>
-        </is>
-      </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>4L-T12@200</t>
+          <t>4L-T16@100</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -1633,7 +1633,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -2165,7 +2165,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -2773,7 +2773,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -2925,7 +2925,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -3077,7 +3077,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -3305,7 +3305,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -3533,7 +3533,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -3685,7 +3685,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
